--- a/biology/Histoire de la zoologie et de la botanique/William_Kirby_(entomologiste)/William_Kirby_(entomologiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Kirby_(entomologiste)/William_Kirby_(entomologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Kirby, né le 19 septembre 1759 à Witnesham dans le Suffolk et mort le 4 juillet 1850 à Barham également dans le Suffolk, est un entomologiste anglais. Il est le fils du peintre  paysagiste, graveur et écrivain John Joshua Kirby (en) (1716 – 1774), et le frère de l'écrivain Sarah Trimmer (1741 – 1810).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Kirby poursuit des études à Ipswich puis au Caius College de Cambridge. Il entre dans les ordres en 1782 et devient recteur dans la tranquille bourgade de Barham (Suffolk) où il passe toute sa vie.
 Il est passionné d'histoire naturelle et particulièrement d'entomologie. En 1802, il se fait connaître des spécialistes anglais et internationaux de son époque en publiant une Monographia Apum Angliae (en 2 volume), le premier traité sur ces espèces d'Hyménoptères Aculéates.
